--- a/Inputs/outliers.xlsx
+++ b/Inputs/outliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\KUL\Master thesis\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F779BE-F0D6-4A8F-A57D-B7F86A6A19F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201B2DB-B8CC-493D-B20C-EE52F2122888}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{6752877C-6E2E-466A-B1AE-08F695994F06}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="1003">
   <si>
     <t>A_1_1</t>
   </si>
@@ -3036,6 +3036,9 @@
   </si>
   <si>
     <t>COMMENT</t>
+  </si>
+  <si>
+    <t>fallen seed</t>
   </si>
 </sst>
 </file>
@@ -3464,8 +3467,8 @@
   <dimension ref="A1:I991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A752" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G772" sqref="G772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7773,2479 +7776,4126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B497" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B498" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B500" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F501" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B502" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F503" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B504" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F512" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F513" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B515" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B516" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B517" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B519" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F520" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B521" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B522" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B523" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B524" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B526" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B527" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B528" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B529" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B530" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B531" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B532" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B533" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D534">
+        <v>1</v>
+      </c>
+      <c r="G534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B536" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B537" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B538" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B539" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B540" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F541" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B542" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B543" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B544" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B545" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B547" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B548" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F549" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B551" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B552" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B553" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F555" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F556" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B557" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F559" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B560" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B561" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B562" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B563" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B564" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B566" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B567" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B568" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F569" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F570" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F571" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B572" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B573" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B574" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B575" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B576" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F577" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B578" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B579" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B580" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F581" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F582" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F584" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F586" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B587" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B588" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B589" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F591" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B592" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B593" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C594">
+        <v>1</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B595" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C596">
+        <v>1</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F597" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B598" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C599">
+        <v>1</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F600" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F601" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B602" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B603" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B604" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B605" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C606">
+        <v>1</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F607" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B608" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B609" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B610" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B611" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B612" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F613" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F614" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F615" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B616" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B618" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C619">
+        <v>1</v>
+      </c>
+      <c r="D619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B620" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F621" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F622" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F623" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F624" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F625" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F626" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B628" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B629" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F630" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B631" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B632" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B633" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F634" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B635" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C636">
+        <v>1</v>
+      </c>
+      <c r="D636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F637" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F638" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B639" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F640" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B641" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F642" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F643" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F644" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F645" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F646" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B647" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B648" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B649" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F650" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B651" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F652" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F653" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B654" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F655" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F656" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F657" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F658" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C659">
+        <v>1</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F660" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B661" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B662" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F663" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F664" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B665" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B666" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F667" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B668" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B669" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B670" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F671" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F672" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F673" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B674" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F675" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B676" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B677" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F678" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B679" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B680" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C681">
+        <v>1</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B682" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F685" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B686" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F687" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B688" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F689" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C690">
+        <v>1</v>
+      </c>
+      <c r="D690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B691" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D692">
+        <v>1</v>
+      </c>
+      <c r="G692">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B693" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B694" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F695" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B696" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F697" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B698" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B699" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B700" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B701" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F702" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B703" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F704" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B705" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B706" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F707" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B708" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C709">
+        <v>1</v>
+      </c>
+      <c r="D709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B710" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F711" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F712" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B713" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F714" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F715" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B716" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F717" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B718" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B719" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B720" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C721">
+        <v>1</v>
+      </c>
+      <c r="D721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F722" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B723" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F724" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C725">
+        <v>1</v>
+      </c>
+      <c r="D725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B726" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B727" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F728" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B729" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B731" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B732" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F733" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F734" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B735" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B736" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C737">
+        <v>1</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F738" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B739" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B740" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F741" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F742" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F743" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B744" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B745" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B746" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E747">
+        <v>1</v>
+      </c>
+      <c r="G747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F749" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C750">
+        <v>1</v>
+      </c>
+      <c r="D750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B751" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F752" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B753" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B754" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B755" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F756" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F757" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B758" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F759" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B760" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B761" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B762" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F763" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B764" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F765" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B766" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F767" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F768" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B769" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B770" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F771" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F773" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C774">
+        <v>1</v>
+      </c>
+      <c r="G774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F775" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C776">
+        <v>1</v>
+      </c>
+      <c r="D776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B777" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B778" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B779" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F780" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E781">
+        <v>1</v>
+      </c>
+      <c r="G781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B782" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C783">
+        <v>1</v>
+      </c>
+      <c r="D783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F785" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A786" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C786">
+        <v>1</v>
+      </c>
+      <c r="I786" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A787" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F787" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B788" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B789" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B790" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B791" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C792">
+        <v>1</v>
+      </c>
+      <c r="D792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C793">
+        <v>1</v>
+      </c>
+      <c r="D793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A794" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B794" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B795" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B796" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B797" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F798" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B799" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A800" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C800">
+        <v>1</v>
+      </c>
+      <c r="D800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F801" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B802" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B803" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F804" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B805" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F806" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B809" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C810">
+        <v>1</v>
+      </c>
+      <c r="D810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B811" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B812" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F813" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F814" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B815" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B816" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B817" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B818" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B819" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B820" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C821">
+        <v>1</v>
+      </c>
+      <c r="D821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F822" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B824" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F825" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F826" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F827" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F828" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B829" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B830" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D831">
+        <v>1</v>
+      </c>
+      <c r="G831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D832">
+        <v>1</v>
+      </c>
+      <c r="G832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B833" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F834" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F835" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F836" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F837" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F838" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B839" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B840" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B841" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B842" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F844" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F845" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F847" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F848" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B849" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F850" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B851" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B852" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F853" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F854" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C855">
+        <v>1</v>
+      </c>
+      <c r="D855">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B856" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B857" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B858" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B859" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B860" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B861" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F862" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B863" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F864" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B865" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F866" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B867" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868" s="3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F868" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B869" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B870" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F871" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D872">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B873" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B874" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F876" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877" s="3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B877" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A878" s="3" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B878" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B879" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C880">
+        <v>1</v>
+      </c>
+      <c r="D880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A881" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B881" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A882" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B882" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A883" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A884" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B884" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A885" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B885" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A886" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C886">
+        <v>1</v>
+      </c>
+      <c r="E886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A887" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B887" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A888" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F888" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A889" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F889" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A890" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B890" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A891" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B891" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B892" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A893" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B893" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A894" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B894" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A895" s="3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F895" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A896" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B896" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A897" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E897">
+        <v>1</v>
+      </c>
+      <c r="G897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A898" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C898">
+        <v>1</v>
+      </c>
+      <c r="D898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A899" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B899" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A900" s="3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B900" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A901" s="3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B901" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A902" s="3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B902" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B903" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B904" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A905" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B905" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A906" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B906" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A907" s="3" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C907">
+        <v>1</v>
+      </c>
+      <c r="D907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A908" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B908" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A909" s="3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B909" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A910" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B910" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A911" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B911" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B912" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B913" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B914" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F915" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B917" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F918" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B919" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A920" s="3" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B920" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A921" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D921">
+        <v>1</v>
+      </c>
+      <c r="G921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A922" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B922" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A923" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B923" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B924" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A925" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B925" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A926" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B926" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A928" s="3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C928">
+        <v>1</v>
+      </c>
+      <c r="D928">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A929" s="3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B929" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A930" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F930" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F931" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A932" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F932" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A933" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A934" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F934" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A935" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B935" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A936" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B936" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A937" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F937" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A938" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B938" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A939" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B939" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A940" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B940" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A941" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B941" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A942" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B942" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A943" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B943" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A944" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F944" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A945" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F945" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A946" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F946" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A947" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B947" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B948" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A949" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B949" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A950" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F950" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A951" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B951" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B952" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A953" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B953" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A954" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C954">
+        <v>1</v>
+      </c>
+      <c r="D954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B955" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A956" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B956" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C957">
+        <v>1</v>
+      </c>
+      <c r="D957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C958">
+        <v>1</v>
+      </c>
+      <c r="D958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B959" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B960" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B961" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F962" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C963">
+        <v>1</v>
+      </c>
+      <c r="D963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B964" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B965" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F966" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B968" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B969" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A970" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F970" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F972" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A973" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F973" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A975" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B975" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A976" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F976" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A977" s="3" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B977" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A978" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F978" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A979" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F979" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980" s="3" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B980" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A981" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="G981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B982" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A983" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C983">
+        <v>1</v>
+      </c>
+      <c r="D983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A984" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B984" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A985" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B985" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A986" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B986" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F987" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988" s="3" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B988" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A989" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B989" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A990" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B990" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" s="3" t="s">
         <v>501</v>
+      </c>
+      <c r="G991">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/outliers.xlsx
+++ b/Inputs/outliers.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\KUL\Master thesis\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201B2DB-B8CC-493D-B20C-EE52F2122888}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3D230-1EFA-440B-8BFD-36F56A7D08A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{6752877C-6E2E-466A-B1AE-08F695994F06}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{6752877C-6E2E-466A-B1AE-08F695994F06}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="table" sheetId="1" r:id="rId1"/>
+    <sheet name="weights" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="1007">
   <si>
     <t>A_1_1</t>
   </si>
@@ -3039,6 +3040,18 @@
   </si>
   <si>
     <t>fallen seed</t>
+  </si>
+  <si>
+    <t>NOT_FG</t>
+  </si>
+  <si>
+    <t>LS weight</t>
+  </si>
+  <si>
+    <t>RS weight</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -3141,7 +3154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3150,6 +3163,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3466,9 +3481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1FF0D3-2C26-4360-8FBA-5A209FE02C7D}">
   <dimension ref="A1:I991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A752" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G772" sqref="G772"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11901,4 +11916,133 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DDE375-7B49-4C47-8224-F12876C3F35B}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>992</v>
+      </c>
+      <c r="B5">
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inputs/outliers.xlsx
+++ b/Inputs/outliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\KUL\Master thesis\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3D230-1EFA-440B-8BFD-36F56A7D08A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314764D-D51A-44B2-857D-3B620713E069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{6752877C-6E2E-466A-B1AE-08F695994F06}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="1007">
   <si>
     <t>A_1_1</t>
   </si>
@@ -11922,9 +11922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DDE375-7B49-4C47-8224-F12876C3F35B}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11933,7 +11931,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="8" t="s">
         <v>1004</v>
       </c>

--- a/Inputs/outliers.xlsx
+++ b/Inputs/outliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\KUL\Master thesis\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314764D-D51A-44B2-857D-3B620713E069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2A7A65-3502-4857-8C3C-BF6D7DB8D165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{6752877C-6E2E-466A-B1AE-08F695994F06}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="1011">
   <si>
     <t>A_1_1</t>
   </si>
@@ -3052,6 +3052,18 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -3113,7 +3125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3150,6 +3162,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3164,7 +3185,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11922,7 +11943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DDE375-7B49-4C47-8224-F12876C3F35B}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11945,59 +11968,59 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>996</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="A2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>992</v>
+        <v>1003</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12015,17 +12038,17 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B7">
-        <v>0.8</v>
-      </c>
-      <c r="C7">
-        <v>0.8</v>
-      </c>
-      <c r="D7">
-        <v>0.8</v>
+      <c r="A7" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
